--- a/Apuntes medidas.xlsx
+++ b/Apuntes medidas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\OneDrive\Documents\Mecatronica TEC\Bloque 10\Electiva II\Sistemas de Visión\Tarea 1 Visión\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\U\GitHub\Tarea-1-Visi-n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA9358C-451C-496D-8CBF-D3AC5D52AF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C417E9B0-C5FE-4104-AC79-25BF404528C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57DB487-E368-420B-8F47-28B57C2EC010}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B57DB487-E368-420B-8F47-28B57C2EC010}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Cuadro 1</t>
   </si>
@@ -65,6 +65,36 @@
   </si>
   <si>
     <t>promedio</t>
+  </si>
+  <si>
+    <t>Pruebas app</t>
+  </si>
+  <si>
+    <t>Verde</t>
+  </si>
+  <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t>Azul</t>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
+  <si>
+    <t>wd</t>
+  </si>
+  <si>
+    <t>wd-h</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>error</t>
   </si>
 </sst>
 </file>
@@ -417,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07BC43A-4202-49BB-A1D1-4E00EBB3F9A1}">
-  <dimension ref="C5:K21"/>
+  <dimension ref="C5:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +644,7 @@
         <v>3.3037656903765691</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>4</v>
       </c>
@@ -629,7 +659,7 @@
         <v>3.3037656903765691</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>4</v>
       </c>
@@ -644,7 +674,7 @@
         <v>3.3037656903765691</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>7</v>
       </c>
@@ -660,7 +690,7 @@
         <v>1.2690651287250534</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>8</v>
       </c>
@@ -669,7 +699,108 @@
         <v>4.206673307389959E-2</v>
       </c>
     </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>136</v>
+      </c>
+      <c r="F29">
+        <v>18</v>
+      </c>
+      <c r="G29">
+        <f>E29-F29</f>
+        <v>118</v>
+      </c>
+      <c r="H29">
+        <v>56</v>
+      </c>
+      <c r="I29">
+        <v>58.5</v>
+      </c>
+      <c r="J29">
+        <f>ABS(I29-H29)/H29*100</f>
+        <v>4.4642857142857144</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>128</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ref="G30:G31" si="1">E30-F30</f>
+        <v>119</v>
+      </c>
+      <c r="H30">
+        <v>52</v>
+      </c>
+      <c r="I30">
+        <v>51.4</v>
+      </c>
+      <c r="J30">
+        <f>ABS(I30-H30)/H30*100</f>
+        <v>1.1538461538461564</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>157</v>
+      </c>
+      <c r="F31">
+        <v>18</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
+      <c r="H31">
+        <v>87</v>
+      </c>
+      <c r="I31">
+        <v>89.3</v>
+      </c>
+      <c r="J31">
+        <f>ABS(I31-H31)/H31*100</f>
+        <v>2.6436781609195372</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>